--- a/Documents/ProjectPlan.xlsx
+++ b/Documents/ProjectPlan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Wake Tech Sem 4\SGD 285\Assignment03JumpyStreet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wake Tech Sem 4\SGD 285\Assignment03JumpyStreet\Software-Engineering-Jumpy-Street\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20A213-DE73-4F77-B86D-A927669971B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Jumpy Street</t>
   </si>
@@ -125,9 +126,6 @@
     <t>Buffered inputs so that the player can tap a certain time before the hop ends and still go, or change movement</t>
   </si>
   <si>
-    <t>Project Lead: Beelzebub, Lord of Flies</t>
-  </si>
-  <si>
     <t>Continuous spawn and despawn</t>
   </si>
   <si>
@@ -138,12 +136,18 @@
   </si>
   <si>
     <t>Alec</t>
+  </si>
+  <si>
+    <t>Project Lead</t>
+  </si>
+  <si>
+    <t>Nelson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -527,7 +531,7 @@
     </row>
     <row r="2" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -574,7 +578,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -600,7 +604,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -622,7 +626,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -641,14 +645,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -747,7 +749,9 @@
         <v>14</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -832,12 +836,12 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B39"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C39"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B39" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C39" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/ProjectPlan.xlsx
+++ b/Documents/ProjectPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wake Tech Sem 4\SGD 285\Assignment03JumpyStreet\Software-Engineering-Jumpy-Street\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aebla\Desktop\SGD-285_Software Engineering\GitHub\Jumpy Street\Software-Engineering-Jumpy-Street\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20A213-DE73-4F77-B86D-A927669971B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFC3A9-472F-44B9-B4E7-F7B154FA0872}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Jumpy Street</t>
   </si>
@@ -511,30 +511,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="112" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -548,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -572,33 +572,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -608,7 +614,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -616,7 +622,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -624,7 +630,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -632,7 +638,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -640,7 +646,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -648,7 +654,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -656,7 +662,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -664,7 +670,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -672,7 +678,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -680,7 +686,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -688,7 +694,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -696,7 +702,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -704,7 +710,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -712,7 +718,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
@@ -720,7 +726,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -728,7 +734,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -736,7 +742,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -744,7 +750,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
@@ -754,7 +760,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -762,7 +768,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -770,7 +776,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -778,7 +784,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -786,49 +792,49 @@
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>

--- a/Documents/ProjectPlan.xlsx
+++ b/Documents/ProjectPlan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wake Tech Sem 4\SGD 285\Assignment03JumpyStreet\Software-Engineering-Jumpy-Street\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlecMartinez\Wake Tech Sem 4\SGD 285\Assignment03JumpyStreet\JumpyStreet\Software-Engineering-Jumpy-Street\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20A213-DE73-4F77-B86D-A927669971B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Jumpy Street</t>
   </si>
@@ -142,12 +141,21 @@
   </si>
   <si>
     <t>Nelson</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Moving grid upand down instead of moving player</t>
+  </si>
+  <si>
+    <t>Pre generated terrain that wil spawn randomly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,23 +588,33 @@
       <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -606,83 +624,121 @@
       <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -690,15 +746,19 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -706,15 +766,15 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>13</v>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -722,15 +782,15 @@
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -738,41 +798,41 @@
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>14</v>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -780,20 +840,24 @@
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
@@ -828,20 +892,32 @@
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D41">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B39" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C39" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B41"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C41"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/ProjectPlan.xlsx
+++ b/Documents/ProjectPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Jumpy Street</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Nelson</t>
-  </si>
-  <si>
-    <t>Moved</t>
   </si>
   <si>
     <t>Moving grid upand down instead of moving player</t>
@@ -519,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,7 +655,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -666,7 +663,7 @@
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -738,11 +735,15 @@
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -761,64 +762,96 @@
         <v>12</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -826,41 +859,59 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
